--- a/storage/app/src/TemplateFile.xlsx
+++ b/storage/app/src/TemplateFile.xlsx
@@ -159,6 +159,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=RECHERCHEV($C$9;</t>
     </r>
@@ -168,6 +169,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">$Feuil3.$A$2:$B$150</t>
     </r>
@@ -177,6 +179,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;2;0)</t>
     </r>
@@ -191,7 +194,7 @@
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,15 +395,10 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="24">
@@ -1033,10 +1031,10 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
@@ -1140,13 +1138,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="n">
-        <v>44594</v>
+        <v>44627</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>44834</v>
+        <v>44769</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>11</v>
@@ -1186,7 +1184,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="20" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,7 +1196,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
